--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y439"/>
+  <dimension ref="A1:Y443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
       </c>
       <c r="R438" s="2" t="inlineStr"/>
     </row>
-    <row r="439">
+    <row r="439" ht="15" customHeight="1">
       <c r="A439" t="inlineStr">
         <is>
           <t>A 40171-2023</t>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27233,6 +27233,239 @@
         <v>0</v>
       </c>
       <c r="R439" s="2" t="inlineStr"/>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>A 42574-2023</t>
+        </is>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C440" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>HÖGSBY</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0</v>
+      </c>
+      <c r="O440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R440" s="2" t="inlineStr"/>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>A 42668-2023</t>
+        </is>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>HÖGSBY</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" s="2" t="inlineStr"/>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>A 42569-2023</t>
+        </is>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>HÖGSBY</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" s="2" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>A 43213-2023</t>
+        </is>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C443" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>HÖGSBY</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N443" t="n">
+        <v>0</v>
+      </c>
+      <c r="O443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 16212-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 16212-2019.xlsx", "A 16212-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 16212-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 16212-2019.png", "A 16212-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 16212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 16212-2019.docx", "A 16212-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 16212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 16212-2019.docx", "A 16212-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 16212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 16212-2019.docx", "A 16212-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 16212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 16212-2019.docx", "A 16212-2019")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -730,27 +730,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 33827-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 33827-2021.xlsx", "A 33827-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 33827-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 33827-2021.png", "A 33827-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 33827-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 33827-2021.docx", "A 33827-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 33827-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 33827-2021.docx", "A 33827-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 33827-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 33827-2021.docx", "A 33827-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 33827-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 33827-2021.docx", "A 33827-2021")</f>
         <v/>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -825,27 +825,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 44969-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 44969-2021.xlsx", "A 44969-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 44969-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 44969-2021.png", "A 44969-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 44969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 44969-2021.docx", "A 44969-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 44969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 44969-2021.docx", "A 44969-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 44969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 44969-2021.docx", "A 44969-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 44969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 44969-2021.docx", "A 44969-2021")</f>
         <v/>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,31 +919,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7689-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7689-2019.xlsx", "A 7689-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7689-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7689-2019.png", "A 7689-2019")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 7689-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 7689-2019.png", "A 7689-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7689-2019.docx", "A 7689-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7689-2019.docx", "A 7689-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7689-2019.docx", "A 7689-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7689-2019.docx", "A 7689-2019")</f>
         <v/>
       </c>
     </row>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,27 +1016,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 51920-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 51920-2018.xlsx", "A 51920-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 51920-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 51920-2018.png", "A 51920-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 51920-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 51920-2018.docx", "A 51920-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 51920-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 51920-2018.docx", "A 51920-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 51920-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 51920-2018.docx", "A 51920-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 51920-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 51920-2018.docx", "A 51920-2018")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,31 +1109,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 20822-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 20822-2019.xlsx", "A 20822-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 20822-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 20822-2019.png", "A 20822-2019")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 20822-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 20822-2019.png", "A 20822-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 20822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 20822-2019.docx", "A 20822-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 20822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 20822-2019.docx", "A 20822-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 20822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 20822-2019.docx", "A 20822-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 20822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 20822-2019.docx", "A 20822-2019")</f>
         <v/>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 54370-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 54370-2020.xlsx", "A 54370-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 54370-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 54370-2020.png", "A 54370-2020")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 54370-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 54370-2020.png", "A 54370-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 54370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 54370-2020.docx", "A 54370-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 54370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 54370-2020.docx", "A 54370-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 54370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 54370-2020.docx", "A 54370-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 54370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 54370-2020.docx", "A 54370-2020")</f>
         <v/>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,27 +1298,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 68737-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 68737-2018.xlsx", "A 68737-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 68737-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 68737-2018.png", "A 68737-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 68737-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 68737-2018.docx", "A 68737-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 68737-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 68737-2018.docx", "A 68737-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 68737-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 68737-2018.docx", "A 68737-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 68737-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 68737-2018.docx", "A 68737-2018")</f>
         <v/>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 74479-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 74479-2021.xlsx", "A 74479-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 74479-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 74479-2021.png", "A 74479-2021")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 74479-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 74479-2021.png", "A 74479-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 74479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 74479-2021.docx", "A 74479-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 74479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 74479-2021.docx", "A 74479-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 74479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 74479-2021.docx", "A 74479-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 74479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 74479-2021.docx", "A 74479-2021")</f>
         <v/>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,31 +1482,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7031-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7031-2022.xlsx", "A 7031-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7031-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7031-2022.png", "A 7031-2022")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 7031-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 7031-2022.png", "A 7031-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7031-2022.docx", "A 7031-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7031-2022.docx", "A 7031-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7031-2022.docx", "A 7031-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7031-2022.docx", "A 7031-2022")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,27 +1576,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 49484-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 49484-2022.xlsx", "A 49484-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 49484-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 49484-2022.png", "A 49484-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 49484-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 49484-2022.docx", "A 49484-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 49484-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 49484-2022.docx", "A 49484-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 49484-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 49484-2022.docx", "A 49484-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 49484-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 49484-2022.docx", "A 49484-2022")</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 20823-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 20823-2019.xlsx", "A 20823-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 20823-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 20823-2019.png", "A 20823-2019")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 20823-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 20823-2019.png", "A 20823-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 20823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 20823-2019.docx", "A 20823-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 20823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 20823-2019.docx", "A 20823-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 20823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 20823-2019.docx", "A 20823-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 20823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 20823-2019.docx", "A 20823-2019")</f>
         <v/>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1758,27 +1758,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 36145-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 36145-2019.xlsx", "A 36145-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 36145-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 36145-2019.png", "A 36145-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 36145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 36145-2019.docx", "A 36145-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 36145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 36145-2019.docx", "A 36145-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 36145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 36145-2019.docx", "A 36145-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 36145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 36145-2019.docx", "A 36145-2019")</f>
         <v/>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,27 +1847,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7701-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7701-2022.xlsx", "A 7701-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7701-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7701-2022.png", "A 7701-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7701-2022.docx", "A 7701-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7701-2022.docx", "A 7701-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7701-2022.docx", "A 7701-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7701-2022.docx", "A 7701-2022")</f>
         <v/>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,27 +1935,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 24795-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 24795-2020.xlsx", "A 24795-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 24795-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 24795-2020.png", "A 24795-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 24795-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 24795-2020.docx", "A 24795-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 24795-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 24795-2020.docx", "A 24795-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 24795-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 24795-2020.docx", "A 24795-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 24795-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 24795-2020.docx", "A 24795-2020")</f>
         <v/>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,27 +2023,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 51578-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 51578-2020.xlsx", "A 51578-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 51578-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 51578-2020.png", "A 51578-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 51578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 51578-2020.docx", "A 51578-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 51578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 51578-2020.docx", "A 51578-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 51578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 51578-2020.docx", "A 51578-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 51578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 51578-2020.docx", "A 51578-2020")</f>
         <v/>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,27 +2110,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 3816-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 3816-2019.xlsx", "A 3816-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 3816-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 3816-2019.png", "A 3816-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 3816-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 3816-2019.docx", "A 3816-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 3816-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 3816-2019.docx", "A 3816-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 3816-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 3816-2019.docx", "A 3816-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 3816-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 3816-2019.docx", "A 3816-2019")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,27 +2202,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 6157-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 6157-2019.xlsx", "A 6157-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 6157-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 6157-2019.png", "A 6157-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 6157-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 6157-2019.docx", "A 6157-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 6157-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 6157-2019.docx", "A 6157-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 6157-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 6157-2019.docx", "A 6157-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 6157-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 6157-2019.docx", "A 6157-2019")</f>
         <v/>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2289,27 +2289,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 61610-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 61610-2019.xlsx", "A 61610-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 61610-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 61610-2019.png", "A 61610-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 61610-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 61610-2019.docx", "A 61610-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 61610-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 61610-2019.docx", "A 61610-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 61610-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 61610-2019.docx", "A 61610-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 61610-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 61610-2019.docx", "A 61610-2019")</f>
         <v/>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,27 +2375,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 35681-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 35681-2018.xlsx", "A 35681-2018")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 35681-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 35681-2018.png", "A 35681-2018")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 35681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 35681-2018.docx", "A 35681-2018")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 35681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 35681-2018.docx", "A 35681-2018")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 35681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 35681-2018.docx", "A 35681-2018")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 35681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 35681-2018.docx", "A 35681-2018")</f>
         <v/>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,27 +2461,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 20824-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 20824-2019.xlsx", "A 20824-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 20824-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 20824-2019.png", "A 20824-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 20824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 20824-2019.docx", "A 20824-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 20824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 20824-2019.docx", "A 20824-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 20824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 20824-2019.docx", "A 20824-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 20824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 20824-2019.docx", "A 20824-2019")</f>
         <v/>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,27 +2547,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 36531-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 36531-2019.xlsx", "A 36531-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 36531-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 36531-2019.png", "A 36531-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 36531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 36531-2019.docx", "A 36531-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 36531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 36531-2019.docx", "A 36531-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 36531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 36531-2019.docx", "A 36531-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 36531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 36531-2019.docx", "A 36531-2019")</f>
         <v/>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2633,27 +2633,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 53578-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 53578-2019.xlsx", "A 53578-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 53578-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 53578-2019.png", "A 53578-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 53578-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 53578-2019.docx", "A 53578-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 53578-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 53578-2019.docx", "A 53578-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 53578-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 53578-2019.docx", "A 53578-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 53578-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 53578-2019.docx", "A 53578-2019")</f>
         <v/>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2724,27 +2724,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 30203-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 30203-2023.xlsx", "A 30203-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 30203-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 30203-2023.png", "A 30203-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 30203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 30203-2023.docx", "A 30203-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 30203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 30203-2023.docx", "A 30203-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 30203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 30203-2023.docx", "A 30203-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 30203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 30203-2023.docx", "A 30203-2023")</f>
         <v/>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2814,27 +2814,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 37269-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 37269-2018.xlsx", "A 37269-2018")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 37269-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 37269-2018.png", "A 37269-2018")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 37269-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 37269-2018.docx", "A 37269-2018")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 37269-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 37269-2018.docx", "A 37269-2018")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 37269-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 37269-2018.docx", "A 37269-2018")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 37269-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 37269-2018.docx", "A 37269-2018")</f>
         <v/>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2899,27 +2899,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 4365-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 4365-2019.xlsx", "A 4365-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 4365-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 4365-2019.png", "A 4365-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 4365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 4365-2019.docx", "A 4365-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 4365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 4365-2019.docx", "A 4365-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 4365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 4365-2019.docx", "A 4365-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 4365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 4365-2019.docx", "A 4365-2019")</f>
         <v/>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2984,27 +2984,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 13362-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 13362-2019.xlsx", "A 13362-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 13362-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 13362-2019.png", "A 13362-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 13362-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 13362-2019.docx", "A 13362-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 13362-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 13362-2019.docx", "A 13362-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 13362-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 13362-2019.docx", "A 13362-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 13362-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 13362-2019.docx", "A 13362-2019")</f>
         <v/>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3069,27 +3069,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 21100-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 21100-2019.xlsx", "A 21100-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 21100-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 21100-2019.png", "A 21100-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 21100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 21100-2019.docx", "A 21100-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 21100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 21100-2019.docx", "A 21100-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 21100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 21100-2019.docx", "A 21100-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 21100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 21100-2019.docx", "A 21100-2019")</f>
         <v/>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3154,31 +3154,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 25190-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 25190-2019.xlsx", "A 25190-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 25190-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 25190-2019.png", "A 25190-2019")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 25190-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 25190-2019.png", "A 25190-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 25190-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 25190-2019.docx", "A 25190-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 25190-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 25190-2019.docx", "A 25190-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 25190-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 25190-2019.docx", "A 25190-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 25190-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 25190-2019.docx", "A 25190-2019")</f>
         <v/>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,27 +3243,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 26448-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 26448-2019.xlsx", "A 26448-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 26448-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 26448-2019.png", "A 26448-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 26448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 26448-2019.docx", "A 26448-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 26448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 26448-2019.docx", "A 26448-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 26448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 26448-2019.docx", "A 26448-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 26448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 26448-2019.docx", "A 26448-2019")</f>
         <v/>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,27 +3328,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 38893-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 38893-2019.xlsx", "A 38893-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 38893-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 38893-2019.png", "A 38893-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 38893-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 38893-2019.docx", "A 38893-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 38893-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 38893-2019.docx", "A 38893-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 38893-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 38893-2019.docx", "A 38893-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 38893-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 38893-2019.docx", "A 38893-2019")</f>
         <v/>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,27 +3413,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 39421-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 39421-2019.xlsx", "A 39421-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 39421-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 39421-2019.png", "A 39421-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 39421-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 39421-2019.docx", "A 39421-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 39421-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 39421-2019.docx", "A 39421-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 39421-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 39421-2019.docx", "A 39421-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 39421-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 39421-2019.docx", "A 39421-2019")</f>
         <v/>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3503,27 +3503,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 46011-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 46011-2019.xlsx", "A 46011-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 46011-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 46011-2019.png", "A 46011-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 46011-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 46011-2019.docx", "A 46011-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 46011-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 46011-2019.docx", "A 46011-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 46011-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 46011-2019.docx", "A 46011-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 46011-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 46011-2019.docx", "A 46011-2019")</f>
         <v/>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3588,31 +3588,31 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 50457-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 50457-2019.xlsx", "A 50457-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 50457-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 50457-2019.png", "A 50457-2019")</f>
         <v/>
       </c>
       <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 50457-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 50457-2019.png", "A 50457-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 50457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 50457-2019.docx", "A 50457-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 50457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 50457-2019.docx", "A 50457-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 50457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 50457-2019.docx", "A 50457-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 50457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 50457-2019.docx", "A 50457-2019")</f>
         <v/>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3677,27 +3677,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 57390-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 57390-2019.xlsx", "A 57390-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 57390-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 57390-2019.png", "A 57390-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 57390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 57390-2019.docx", "A 57390-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 57390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 57390-2019.docx", "A 57390-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 57390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 57390-2019.docx", "A 57390-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 57390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 57390-2019.docx", "A 57390-2019")</f>
         <v/>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,27 +3762,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 63075-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 63075-2019.xlsx", "A 63075-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 63075-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 63075-2019.png", "A 63075-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 63075-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 63075-2019.docx", "A 63075-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 63075-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 63075-2019.docx", "A 63075-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 63075-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 63075-2019.docx", "A 63075-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 63075-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 63075-2019.docx", "A 63075-2019")</f>
         <v/>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,27 +3847,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 44078-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 44078-2020.xlsx", "A 44078-2020")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 44078-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 44078-2020.png", "A 44078-2020")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 44078-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 44078-2020.docx", "A 44078-2020")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 44078-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 44078-2020.docx", "A 44078-2020")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 44078-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 44078-2020.docx", "A 44078-2020")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 44078-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 44078-2020.docx", "A 44078-2020")</f>
         <v/>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,27 +3932,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 51595-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 51595-2020.xlsx", "A 51595-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 51595-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 51595-2020.png", "A 51595-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 51595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 51595-2020.docx", "A 51595-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 51595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 51595-2020.docx", "A 51595-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 51595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 51595-2020.docx", "A 51595-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 51595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 51595-2020.docx", "A 51595-2020")</f>
         <v/>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,27 +4017,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 3518-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 3518-2021.xlsx", "A 3518-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 3518-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 3518-2021.png", "A 3518-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 3518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 3518-2021.docx", "A 3518-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 3518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 3518-2021.docx", "A 3518-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 3518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 3518-2021.docx", "A 3518-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 3518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 3518-2021.docx", "A 3518-2021")</f>
         <v/>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,27 +4102,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 10947-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 10947-2021.xlsx", "A 10947-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 10947-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 10947-2021.png", "A 10947-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 10947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 10947-2021.docx", "A 10947-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 10947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 10947-2021.docx", "A 10947-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 10947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 10947-2021.docx", "A 10947-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 10947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 10947-2021.docx", "A 10947-2021")</f>
         <v/>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,27 +4192,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 25131-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 25131-2021.xlsx", "A 25131-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 25131-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 25131-2021.png", "A 25131-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 25131-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 25131-2021.docx", "A 25131-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 25131-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 25131-2021.docx", "A 25131-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 25131-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 25131-2021.docx", "A 25131-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 25131-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 25131-2021.docx", "A 25131-2021")</f>
         <v/>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4282,27 +4282,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 68563-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 68563-2021.xlsx", "A 68563-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 68563-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 68563-2021.png", "A 68563-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 68563-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 68563-2021.docx", "A 68563-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 68563-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 68563-2021.docx", "A 68563-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 68563-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 68563-2021.docx", "A 68563-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 68563-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 68563-2021.docx", "A 68563-2021")</f>
         <v/>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4367,27 +4367,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 1519-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 1519-2022.xlsx", "A 1519-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 1519-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 1519-2022.png", "A 1519-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 1519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 1519-2022.docx", "A 1519-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 1519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 1519-2022.docx", "A 1519-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 1519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 1519-2022.docx", "A 1519-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 1519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 1519-2022.docx", "A 1519-2022")</f>
         <v/>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4452,27 +4452,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7032-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 7032-2022.xlsx", "A 7032-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7032-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 7032-2022.png", "A 7032-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 7032-2022.docx", "A 7032-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 7032-2022.docx", "A 7032-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 7032-2022.docx", "A 7032-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 7032-2022.docx", "A 7032-2022")</f>
         <v/>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4542,27 +4542,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 10989-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 10989-2022.xlsx", "A 10989-2022")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 10989-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 10989-2022.png", "A 10989-2022")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 10989-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 10989-2022.docx", "A 10989-2022")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 10989-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 10989-2022.docx", "A 10989-2022")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 10989-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 10989-2022.docx", "A 10989-2022")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 10989-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 10989-2022.docx", "A 10989-2022")</f>
         <v/>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,27 +4627,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 11995-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 11995-2022.xlsx", "A 11995-2022")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 11995-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 11995-2022.png", "A 11995-2022")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 11995-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 11995-2022.docx", "A 11995-2022")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 11995-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 11995-2022.docx", "A 11995-2022")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 11995-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 11995-2022.docx", "A 11995-2022")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 11995-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 11995-2022.docx", "A 11995-2022")</f>
         <v/>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4712,27 +4712,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 48263-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 48263-2022.xlsx", "A 48263-2022")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 48263-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 48263-2022.png", "A 48263-2022")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 48263-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 48263-2022.docx", "A 48263-2022")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 48263-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 48263-2022.docx", "A 48263-2022")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 48263-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 48263-2022.docx", "A 48263-2022")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 48263-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 48263-2022.docx", "A 48263-2022")</f>
         <v/>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4797,27 +4797,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 59407-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 59407-2022.xlsx", "A 59407-2022")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 59407-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 59407-2022.png", "A 59407-2022")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 59407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 59407-2022.docx", "A 59407-2022")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 59407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 59407-2022.docx", "A 59407-2022")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 59407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 59407-2022.docx", "A 59407-2022")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 59407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 59407-2022.docx", "A 59407-2022")</f>
         <v/>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4882,27 +4882,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 23849-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/artfynd/A 23849-2023.xlsx", "A 23849-2023")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 23849-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/kartor/A 23849-2023.png", "A 23849-2023")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 23849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 23849-2023.docx", "A 23849-2023")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 23849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 23849-2023.docx", "A 23849-2023")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 23849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 23849-2023.docx", "A 23849-2023")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 23849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 23849-2023.docx", "A 23849-2023")</f>
         <v/>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6906,23 +6906,23 @@
       </c>
       <c r="R85" s="2" t="inlineStr"/>
       <c r="U85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 2525-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/knärot/A 2525-2019.png", "A 2525-2019")</f>
         <v/>
       </c>
       <c r="V85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 2525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomål/A 2525-2019.docx", "A 2525-2019")</f>
         <v/>
       </c>
       <c r="W85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 2525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/klagomålsmail/A 2525-2019.docx", "A 2525-2019")</f>
         <v/>
       </c>
       <c r="X85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 2525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsyn/A 2525-2019.docx", "A 2525-2019")</f>
         <v/>
       </c>
       <c r="Y85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 2525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOGSBY/tillsynsmail/A 2525-2019.docx", "A 2525-2019")</f>
         <v/>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>

--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43668</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44607</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43978</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44109</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43493</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43573</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>43748</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43605</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43718</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44083</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44109</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44260</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44573</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45078</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43322</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43322</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43347</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43353</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43360</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43376</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43382</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43411</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43417</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43452</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43475</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43483</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43483</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43486</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43490</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43494</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43524</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43535</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43535</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43549</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43549</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43549</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43573</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43587</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43598</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43599</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43599</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43599</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43606</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43630</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43640</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43647</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43649</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43649</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43649</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43651</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43658</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43662</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43669</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43669</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43671</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43676</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43689</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43689</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>43691</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>43696</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43696</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43696</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>43696</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>43705</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>43707</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43711</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43712</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43718</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43719</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43720</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43724</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43724</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43725</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43726</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43730</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43730</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>43735</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43738</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>43745</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43754</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43775</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43776</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43784</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43784</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43784</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43787</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>43795</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>43796</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43802</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43804</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43817</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43837</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>43853</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43854</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43864</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>43884</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>43909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>43927</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43948</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>43951</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>43951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>43964</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>43979</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>43987</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44006</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44021</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44026</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44035</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44036</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44041</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44048</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44048</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44053</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44056</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44056</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44056</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44057</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44057</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44061</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44064</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44068</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44068</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44072</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>44076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44078</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44078</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44081</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44089</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44089</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44124</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44140</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44146</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44157</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44168</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44200</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44208</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44216</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44216</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44224</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44230</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44250</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44264</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44266</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44272</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44307</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44315</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44327</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44334</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44357</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44363</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44388</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44441</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44446</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44455</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44496</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44496</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44503</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44542</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44542</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44542</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44542</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44552</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44559</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44559</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44579</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44585</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44586</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44594</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44601</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44603</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44607</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44617</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44620</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44623</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44623</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44623</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44628</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44631</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44634</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44637</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44637</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44677</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44686</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44698</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>44760</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44818</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44831</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44861</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>44866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>44867</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44882</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>44886</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>44895</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>44895</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44903</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44907</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44907</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44939</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44952</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44956</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44972</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44981</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44981</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44987</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44987</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44991</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44999</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45008</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45027</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45036</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45040</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45057</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45058</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45058</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45075</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45085</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45090</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45093</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45093</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45093</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45096</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45099</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45105</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45117</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45119</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45126</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45145</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45145</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45147</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45160</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45169</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45181</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45183</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
